--- a/public/templates/入库模板.xlsx
+++ b/public/templates/入库模板.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <r>
       <t>S</t>
@@ -62,10 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>这是备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>旋转卡位手拿包</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,19 +70,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1号库位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2号库位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Y231900350000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Y241900210004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -466,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,7 +488,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -503,31 +499,44 @@
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>120</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>120</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="E4" s="2"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/public/templates/入库模板.xlsx
+++ b/public/templates/入库模板.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <r>
       <t>S</t>
@@ -50,10 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>商品名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -66,10 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>商品库位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Y231900350000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,12 +70,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>待定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>订单编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AR12345</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AR12346</t>
+  </si>
+  <si>
+    <t>AR12347</t>
   </si>
 </sst>
 </file>
@@ -462,24 +460,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -488,55 +484,50 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
         <v>2</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>120</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>120</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
